--- a/Log Files/Phototransistor calibrations.xlsx
+++ b/Log Files/Phototransistor calibrations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colea\OneDrive - The University of Auckland\Uni\Year 4 Sem 1\MECHENG 706\Project 2\706P2\Log Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoa-my.sharepoint.com/personal/cyan924_uoa_auckland_ac_nz/Documents/Documents/706P2/Log Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819490B4-5737-4768-8ED0-64B27EBD8381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{A717E5CF-CAC2-47B3-94B9-641728D750B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A717E5CF-CAC2-47B3-94B9-641728D750B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4533,14 +4533,14 @@
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>25</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>35</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>45</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>55</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>65</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>70</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>75</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>80</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>85</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>90</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>95</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>100</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>105</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>110</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>115</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>120</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>125</v>
       </c>
@@ -4916,22 +4916,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>145</v>
       </c>

--- a/Log Files/Phototransistor calibrations.xlsx
+++ b/Log Files/Phototransistor calibrations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoa-my.sharepoint.com/personal/cyan924_uoa_auckland_ac_nz/Documents/Documents/706P2/Log Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoa-my.sharepoint.com/personal/jtow369_uoa_auckland_ac_nz/Documents/Documents/GitHub/706P2/Log Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819490B4-5737-4768-8ED0-64B27EBD8381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{819490B4-5737-4768-8ED0-64B27EBD8381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6D71712-FA45-4AF6-9B17-1B3CB86307B0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A717E5CF-CAC2-47B3-94B9-641728D750B1}"/>
   </bookViews>
@@ -207,6 +207,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.0641654023754921E-3"/>
+                  <c:y val="-0.10626162534909017"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$23</c:f>
@@ -646,6 +696,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.0071822233297659E-3"/>
+                  <c:y val="-6.60641619039882E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$20</c:f>
@@ -1073,6 +1173,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0591542363768056E-2"/>
+                  <c:y val="-8.0114507154725872E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$22</c:f>
@@ -1506,6 +1656,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.8174074509882703E-3"/>
+                  <c:y val="-8.0114507154725872E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$22</c:f>
@@ -4529,9 +4729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1241CA5D-54E0-422F-8D9F-3148D5E23EA3}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Log Files/Phototransistor calibrations.xlsx
+++ b/Log Files/Phototransistor calibrations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoa-my.sharepoint.com/personal/jtow369_uoa_auckland_ac_nz/Documents/Documents/GitHub/706P2/Log Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zmus754\Documents\GitHub\706P2\Log Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{819490B4-5737-4768-8ED0-64B27EBD8381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6D71712-FA45-4AF6-9B17-1B3CB86307B0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF054B0-65E5-4432-A0C4-C77274AC8A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A717E5CF-CAC2-47B3-94B9-641728D750B1}"/>
   </bookViews>
@@ -259,81 +259,6 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>125</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -403,6 +328,93 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -748,72 +760,6 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>110</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
               <c:f>Sheet1!$C$2:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -874,6 +820,93 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1225,78 +1258,6 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
               <c:f>Sheet1!$D$2:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1363,6 +1324,93 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1708,78 +1756,6 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
               <c:f>Sheet1!$E$2:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1846,6 +1822,93 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4729,7 +4792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1241CA5D-54E0-422F-8D9F-3148D5E23EA3}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
